--- a/Projekt/Dane/Tabela_faktyczna.xlsx
+++ b/Projekt/Dane/Tabela_faktyczna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arekf\Desktop\studia 4 semestr\Ekonometria\Projekt-laborki\Ekonometria\Projekt\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6518F7-8E13-4E0D-A341-9FC569847BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D7DAE7-5309-4E13-AEF5-C97194F70FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8160" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -344,21 +344,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -371,14 +356,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -390,9 +369,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,13 +394,13 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -733,1765 +709,1764 @@
   <dimension ref="A1:M76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="15">
+      <c r="A2" s="15"/>
+      <c r="B2" s="12">
         <v>2021</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>2021</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>2021</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>2021</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <v>2021</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="14" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>4.8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>665</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>3236</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2944</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>813</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2.8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>455</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>2644</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>6055</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1655</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>7.2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>508</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>2275</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>2695</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>669</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>6.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>391</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>2039</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>4635</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>770</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>6.9</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>367</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>1591</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>2825</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>519</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>227</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>2849</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>2589</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>298</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>831</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>1832</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>5118</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>1190</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>6.8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>307</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>2116</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>2875</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>687</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>5.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>409</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>1919</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>3252</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>656</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>391</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>3279</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>7665</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1228</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>2.6</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>793</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>2790</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>5655</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>1316</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>490</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>2565</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>4494</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>1364</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>5.7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>513</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>1738</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>5157</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1274</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>2.8</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>405</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>1595</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>7001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>570</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>4.5</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>577</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>2505</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>5661</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>1180</v>
       </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>5.4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>735</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>2931</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>4815</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>1332</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>3.1</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>531</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>2916</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>5641</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>998</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>5.6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>463</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>2585</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>4265</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>1228</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>3.3</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>677</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>1717</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>4504</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>874</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>458</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>3025</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>4317</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>1629</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>465</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>2742</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>6385</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>1584</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>1.6</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>290</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>1437</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>2731</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>798</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>8.9</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>603</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>1608</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>3125</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>517</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>12.5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>648</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>1955</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>5429</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>824</v>
       </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>3.3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>426</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>2026</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>6209</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>875</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>6.8</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>722</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>2082</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>3833</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>858</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>7.2</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>555</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>1873</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>7303</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>1182</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>6.3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>431</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>2293</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>3691</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>1019</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>7.9</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>794</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>2730</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>4851</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>1453</v>
       </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>4.8</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>660</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>3791</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>4339</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>1731</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <v>1.9</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>451</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>1405</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>2988</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>510</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>359</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>2476</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>5360</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>1341</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="1">
         <v>5.3</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>428</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>3341</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>3233</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>1806</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="3"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="1">
         <v>3.9</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>187</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>1524</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>3440</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <v>683</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="1">
         <v>10.8</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>555</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>1475</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>3629</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>434</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="3"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="1">
         <v>11.5</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>323</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>1475</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>3846</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <v>672</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>325</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>763</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>3170</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <v>307</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="1">
         <v>5.4</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>589</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>3028</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>2798</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>853</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="1">
         <v>8.5</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>192</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>1395</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>2785</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <v>713</v>
       </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="1">
         <v>6.9</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>440</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>1768</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>2861</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <v>670</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="1">
         <v>2.7</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>348</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>3906</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>4502</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <v>1633</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>622</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>993</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>4722</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>464</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="1">
         <v>9.5</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>357</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>2158</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>4950</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>914</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="1">
         <v>11.7</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>338</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>1104</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>4217</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>403</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="1">
         <v>7.8</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>419</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>2343</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>3313</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>1095</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>305</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>1549</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>3577</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>616</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="1">
         <v>5.8</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>318</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>2959</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>3314</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>1677</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="1">
         <v>6.3</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>478</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>2494</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>2048</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>828</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="1">
         <v>6.7</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>435</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>1902</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>2265</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <v>633</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="1">
         <v>6.1</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>226</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>1489</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>1573</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <v>636</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>447</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="2">
         <v>2964</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>3973</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="2">
         <v>1374</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1">
         <v>8.4</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>433</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="2">
         <v>2017</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>3923</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="2">
         <v>421</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <v>10.5</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>387</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="2">
         <v>1262</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>2859</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="2">
         <v>341</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="s">
+      <c r="A57" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <v>11.8</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>612</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="2">
         <v>2525</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="2">
         <v>4736</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="2">
         <v>533</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <v>6.5</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>510</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="2">
         <v>3121</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E58" s="2">
         <v>4663</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="2">
         <v>1505</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="s">
+      <c r="A59" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <v>8.1</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>666</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="2">
         <v>2106</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="2">
         <v>3719</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="2">
         <v>594</v>
       </c>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <v>11.1</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>557</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="2">
         <v>2015</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E60" s="2">
         <v>3547</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="2">
         <v>645</v>
       </c>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="3"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="s">
+      <c r="A61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>445</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="2">
         <v>1681</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="2">
         <v>5123</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="2">
         <v>432</v>
       </c>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <v>8.1</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>316</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="2">
         <v>2932</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="2">
         <v>2996</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="2">
         <v>1026</v>
       </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="s">
+      <c r="A63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <v>7.6</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>207</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>2622</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>2969</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>745</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <v>7.7</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>734</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="2">
         <v>2218</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="2">
         <v>6907</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="2">
         <v>988</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="s">
+      <c r="A65" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <v>8.5</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>502</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="2">
         <v>1648</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="2">
         <v>2933</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="2">
         <v>739</v>
       </c>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <v>1.7</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>537</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="2">
         <v>1145</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="2">
         <v>3665</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="2">
         <v>383</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H67" s="4"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H68" s="4"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H69" s="4"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H70" s="4"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H71" s="4"/>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H72" s="4"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H73" s="4"/>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H74" s="4"/>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H75" s="4"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H76" s="4"/>
+      <c r="H76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
